--- a/biology/Botanique/Galipea_trifoliata/Galipea_trifoliata.xlsx
+++ b/biology/Botanique/Galipea_trifoliata/Galipea_trifoliata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galipea trifoliata est une espèce d'arbuste, sud-américaine, et appartenant à la famille des Rutaceae (familles des agrumes). Il s'agit de l'espèce type du genre Galipea Aubl..
-En Guyane, elle est appelée weti messa ou kofi messa (Aluku)[3].
+En Guyane, elle est appelée weti messa ou kofi messa (Aluku).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Galipea vient vraisemblablement du nom de la nation amérindienne guyanaise appelée « Galipons », citée par Fusée-Aublet dans le protologue. L'épithète spécifique trifoliata se réfère évidemment aux feuilles trifoliolées de cette plante.
 </t>
@@ -543,14 +557,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Galipea trifoliata est un arbrisseau à petits rameaux rougeâtres, à feuilles alternes, pétiolées, trifoliolées, membraneuses, précocement glabres, oblongues, elliptiques, brièvement acuminées, inégales. 
 La foliole médiane est plus grande, et les folioles latérales ont la base oblique. 
 Les inflorescences sont des panicules plus ou moins corymbiformes, terminaux ou axillaires, à pédoncule plus court que les feuilles. 
 Les fleurs sont hermaphrodites. Le petit calice cupuliforme à 5 dents courtes. 
 La corolle verdâtre a un tube 3-4 fois plus long que le calice et comporte 5 lobes imbriqués. 
-On compte 5-8 étamines, sont unies en un tube adné à celui de la corolle. Parmi ces dernières, 2 (ou plus) sont stériles (dépourvues d'anthère). Les étamines fertiles présentent un connectif appendiculé à la base. L'ovaire est inclus dans le disque cupuliforme, à 5 lobes profonds et 5 loges biovulées. Le style est long avec un stigmate à 3-5 lobes. Les carpelles mûrs sont cohérents à la base et au sommet, carénés sur 2 côtés, et contiennent une unique graine[4].
+On compte 5-8 étamines, sont unies en un tube adné à celui de la corolle. Parmi ces dernières, 2 (ou plus) sont stériles (dépourvues d'anthère). Les étamines fertiles présentent un connectif appendiculé à la base. L'ovaire est inclus dans le disque cupuliforme, à 5 lobes profonds et 5 loges biovulées. Le style est long avec un stigmate à 3-5 lobes. Les carpelles mûrs sont cohérents à la base et au sommet, carénés sur 2 côtés, et contiennent une unique graine.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galipea trifoliata est une espèce largement et inégalement répartie dans les Guyanes, au Venezuela, en Colombie, au Pérou, en Équateur, au nord du Brésil, et en Bolivie[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galipea trifoliata est une espèce largement et inégalement répartie dans les Guyanes, au Venezuela, en Colombie, au Pérou, en Équateur, au nord du Brésil, et en Bolivie.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galipea trifoliata aurait des propriétés anti-inflammatoires[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galipea trifoliata aurait des propriétés anti-inflammatoires.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galipea trifoliata contient des flavonoïdes (C-glycosylflavoness[7],[8] et O-glycosyl-C-glycosylflavones[9],[10]) et une coumarine originale baptisée Galipeine[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galipea trifoliata contient des flavonoïdes (C-glycosylflavoness, et O-glycosyl-C-glycosylflavones,) et une coumarine originale baptisée Galipeine.
 </t>
         </is>
       </c>
@@ -672,9 +694,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « GALIPEA trifoliata. (Tabula 269.)
 Frutex caules plurimos ramoſos, ſex-pedales , è radice emittens. Folia alterna, trifoliata ; foliolis lanceolatis, glabris, integerrimis, intermedio longiore &amp; latiore, omnibus petiolo oblongo, ſubtùs convexo, ſupernè ſulcato, utrinque marginato, ſuffultis. Flores virides, corymboſi, exigui, pedunculo communi, longo, innexi, axillares &amp; terminales. 
 Florebat Septembri. 
